--- a/biology/Botanique/Hymenophyllum_denticulatum/Hymenophyllum_denticulatum.xlsx
+++ b/biology/Botanique/Hymenophyllum_denticulatum/Hymenophyllum_denticulatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hymenophylle denticulée - Hymenophyllum denticulatum - est une fougère de la famille des Hyménophyllacées originaire d'Asie tropicale.
 Nom chinois : 厚壁蕨
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 son rhizome est long, filiforme et non pileux ;
@@ -524,7 +538,7 @@
 l'indusie est formée deux lèvres de forme ronde à oblongue ;
 les grappes de sporanges sont complètement recouvertes par l'indusie, qui s'ouvre cependant à maturité.
 Cette espèce a deux variété reconnues :
-Hymenophyllum denticulatum var. flaccidum (Bosch) C.B.Clarke : voir Hymenophyllum khasianum Baker[1]
+Hymenophyllum denticulatum var. flaccidum (Bosch) C.B.Clarke : voir Hymenophyllum khasianum Baker
 Hymenophyllum denticulatum var. neesii C.Chr. (1905) - Remplace l'homonyme Hymenophyllum dichotomum Nees &amp; Blume de Hymenophyllum dichotomum Cav.</t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, plutôt épiphyte de forêts pluviales, est présente en Asie tropicale - Chine, Inde, Japon, Thaïlande, Vietnam - et dans les océans Indien et Pacifique - Indonésie, Polynésie -.
 </t>
@@ -584,17 +600,19 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hymenophyllum denticulatum a été de nombreuses fois déplacée dans la famille des Hyménophyllacées et illustre bien le jeu de piste des espèces de cette famille.
-Cette espèce est décrite une première fois par Olof Peter Swartz en 1801[2].
-En 1808, Jean Louis Marie Poiret la range dans le genre Trichomanes et crée à cette occasion un homonyme de Trichomanes denticulatum Burm.f. (i.e. : Davallia denticulata  (Burm.f.) Mett. ex Kuhn)[3].
-Justus Carl Hasskarl la place dans le genre Didymoglossum en 1857 : Didymoglossum denticulatum (Sw.) Hassk.[4].
-En 1858, Roelof Benjamin van den Bosch la transfère dans le genre Leptocionium (genre décrit par Karel Bořivoj Presl) : Leptocionium denticulatum (Sw.) Bosch[5].
+Cette espèce est décrite une première fois par Olof Peter Swartz en 1801.
+En 1808, Jean Louis Marie Poiret la range dans le genre Trichomanes et crée à cette occasion un homonyme de Trichomanes denticulatum Burm.f. (i.e. : Davallia denticulata  (Burm.f.) Mett. ex Kuhn).
+Justus Carl Hasskarl la place dans le genre Didymoglossum en 1857 : Didymoglossum denticulatum (Sw.) Hassk..
+En 1858, Roelof Benjamin van den Bosch la transfère dans le genre Leptocionium (genre décrit par Karel Bořivoj Presl) : Leptocionium denticulatum (Sw.) Bosch.
 En 1905, Carl Frederik Albert Christensen la renomme dans le genre Hymenophyllum, sous-genre Leptocionium, section Chilodium.
-En 1938, Edwin Bingham Copeland la place dans le genre Meringium : Meringium denticulatum (Sw.) Copel.[6].
-En 1968, Conrad Vernon Morton la replace dans le genre Hymenophyllum, sous-genre Hymenophyllum, section Ptychophyllum[7].
-Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la conservent dans les mêmes genre et sous-genre, la section disparaissant[8].
+En 1938, Edwin Bingham Copeland la place dans le genre Meringium : Meringium denticulatum (Sw.) Copel..
+En 1968, Conrad Vernon Morton la replace dans le genre Hymenophyllum, sous-genre Hymenophyllum, section Ptychophyllum.
+Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la conservent dans les mêmes genre et sous-genre, la section disparaissant.
 Hymenophyllum denticulatum appartient au sous-genre Hymenophyllum.
 Elle compte les synonymes suivants :
 Didymoglossum denticulatum (Sw.) Hassk.
